--- a/biology/Biochimie/HEPES/HEPES.xlsx
+++ b/biology/Biochimie/HEPES/HEPES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'HEPES (ou acide 4-(2-hydroxyéthyl)-1-pipérazine éthane sulfonique) est un composé organique zwitterionique, couramment utilisé sous forme de solution tampon en biochimie. Il fait partie des tampons de Good. Depuis les travaux de Good en 1966, il est largement préféré au tampon bicarbonate pour la culture cellulaire en raison d'une meilleure stabilité au pH physiologique.
